--- a/results/GAIA__TESS_candidate__matches__unique_stars.xlsx
+++ b/results/GAIA__TESS_candidate__matches__unique_stars.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +447,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
@@ -458,7 +458,7 @@
     <col width="19" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="19" customWidth="1" min="11" max="11"/>
-    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
     <col width="16" customWidth="1" min="15" max="15"/>
@@ -468,10 +468,10 @@
     <col width="22" customWidth="1" min="19" max="19"/>
     <col width="11" customWidth="1" min="20" max="20"/>
     <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="23" customWidth="1" min="22" max="22"/>
-    <col width="22" customWidth="1" min="23" max="23"/>
+    <col width="11" customWidth="1" min="22" max="22"/>
+    <col width="11" customWidth="1" min="23" max="23"/>
     <col width="12" customWidth="1" min="24" max="24"/>
-    <col width="19" customWidth="1" min="25" max="25"/>
+    <col width="13" customWidth="1" min="25" max="25"/>
     <col width="26" customWidth="1" min="26" max="26"/>
     <col width="22" customWidth="1" min="27" max="27"/>
     <col width="39" customWidth="1" min="28" max="28"/>
@@ -634,7 +634,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>704967037090946688</t>
+          <t>Gaia DR3 704967037090946688</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>HD  75732</t>
+          <t>HD 75732</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>GJ 324 A</t>
+          <t>GJ 324</t>
         </is>
       </c>
       <c r="X2" t="n">
@@ -718,12 +718,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -748,7 +743,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5902750168276592256</t>
+          <t>Gaia DR3 5902750168276592256</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -832,7 +827,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -862,7 +857,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5378886891123024512</t>
+          <t>Gaia DR3 5378886891123024512</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -943,12 +938,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -973,7 +963,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4623036865373793408</t>
+          <t>Gaia DR3 4623036865373793408</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1026,10 +1016,10 @@
         <v>1.647763955697583</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1085911731050551</v>
+        <v>0.1085911731050552</v>
       </c>
       <c r="R5" t="n">
-        <v>1.616889990960014</v>
+        <v>1.616889990960015</v>
       </c>
       <c r="S5" t="n">
         <v>0.7387211964130875</v>
@@ -1044,7 +1034,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>HD  39091</t>
+          <t>HD 39091</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1057,7 +1047,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1087,7 +1077,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>Gaia DR3 1827242816201846144</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1158,7 +1148,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>HD 189733, HD 189733A</t>
+          <t>HD 189733</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1171,7 +1161,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1201,7 +1191,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4673947174316727040</t>
+          <t>Gaia DR3 4673947174316727040</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1254,7 +1244,7 @@
         <v>0.6687555258669828</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2286520868473961</v>
+        <v>0.2286520868473962</v>
       </c>
       <c r="R7" t="n">
         <v>1.768355141422782</v>
@@ -1272,7 +1262,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>HD  21749</t>
+          <t>HD 21749</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1285,12 +1275,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1315,7 +1300,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1809360187275432832</t>
+          <t>Gaia DR3 1809360187275432832</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1391,7 +1376,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>GJ 783.2 A</t>
+          <t>GJ 783.2</t>
         </is>
       </c>
       <c r="X8" t="n">
@@ -1399,12 +1384,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1429,7 +1409,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3494677900774838144</t>
+          <t>Gaia DR3 3494677900774838144</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1513,7 +1493,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1543,7 +1523,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3997075206232885888</t>
+          <t>Gaia DR3 3997075206232885888</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1614,7 +1594,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>HD  97658</t>
+          <t>HD 97658</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1627,7 +1607,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1657,7 +1637,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>875071278432954240</t>
+          <t>Gaia DR3 875071278432954240</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1728,7 +1708,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>HD  63433</t>
+          <t>HD 63433</t>
         </is>
       </c>
       <c r="X11" t="n">
@@ -1736,7 +1716,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>BYDraV*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1766,7 +1746,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6748283784056800384</t>
+          <t>Gaia DR3 6748283784056800384</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1850,7 +1830,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1880,7 +1860,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2791782794564103808</t>
+          <t>Gaia DR3 2791782794564103808</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1951,12 +1931,12 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>HD   6660, HD   6660A</t>
+          <t>HD 6660</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>GJ 9040 A, GJ 53.1 A</t>
+          <t>GJ 9040</t>
         </is>
       </c>
       <c r="X13" t="n">
@@ -1964,7 +1944,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1994,7 +1974,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6356417496318028800</t>
+          <t>Gaia DR3 6356417496318028800</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2103,7 +2083,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>60186343087140096</t>
+          <t>Gaia DR3 60186343087140096</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2174,7 +2154,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2193,7 +2173,7 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>21.38573457164644</v>
+        <v>21.38573457164645</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -2204,7 +2184,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6449124395465377920</t>
+          <t>Gaia DR3 6449124395465377920</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2288,7 +2268,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2318,7 +2298,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2428162410789155328</t>
+          <t>Gaia DR3 2428162410789155328</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2389,7 +2369,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>GJ 1008.0, GJ 1008</t>
+          <t>GJ 1008.0</t>
         </is>
       </c>
       <c r="X17" t="n">
@@ -2397,7 +2377,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2427,7 +2407,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3837451574150437120</t>
+          <t>Gaia DR3 3837451574150437120</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2498,7 +2478,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>HD  80133</t>
+          <t>HD 80133</t>
         </is>
       </c>
       <c r="X18" t="n">
@@ -2506,7 +2486,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2536,7 +2516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4865826693691966464</t>
+          <t>Gaia DR3 4865826693691966464</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2607,7 +2587,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>HD  29086</t>
+          <t>HD 29086</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2620,7 +2600,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2650,7 +2630,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5357886734438478848</t>
+          <t>Gaia DR3 5357886734438478848</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2721,7 +2701,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>HD  90884</t>
+          <t>HD 90884</t>
         </is>
       </c>
       <c r="X20" t="n">
@@ -2729,7 +2709,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2748,7 +2728,7 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>23.73536925404754</v>
+        <v>23.73536925404753</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -2759,7 +2739,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4805806449875760384</t>
+          <t>Gaia DR3 4805806449875760384</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2838,7 +2818,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>BYDraV*_Candidate</t>
+          <t>BY?</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2868,7 +2848,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5279965341800818176</t>
+          <t>Gaia DR3 5279965341800818176</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2906,7 +2886,7 @@
         <v>35.63647641318352</v>
       </c>
       <c r="L22" t="n">
-        <v>5284.453121171031</v>
+        <v>5284.453125</v>
       </c>
       <c r="M22" t="n">
         <v>0.8740897</v>
@@ -2918,13 +2898,13 @@
         <v>0.7676642</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8576804351207981</v>
+        <v>0.8576804348899152</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2694157300223606</v>
+        <v>0.2694157305617392</v>
       </c>
       <c r="R22" t="n">
-        <v>2.608985362147536</v>
+        <v>2.608985367019665</v>
       </c>
       <c r="S22" t="n">
         <v>1.932155784020845</v>
@@ -2936,7 +2916,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>HD  47252</t>
+          <t>HD 47252</t>
         </is>
       </c>
       <c r="X22" t="n">
@@ -2944,7 +2924,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -2974,7 +2954,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3948424496764080640</t>
+          <t>Gaia DR3 3948424496764080640</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3050,7 +3030,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3080,225 +3060,220 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2501948402746099456</t>
+          <t>Gaia DR3 3380479015342121600</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2501948402746099456</t>
+          <t>3380479015342121600</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2501948402746099456</t>
+          <t>3380479015342121600</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>40.17990022710249</v>
+        <v>103.6782675948329</v>
       </c>
       <c r="E24" t="n">
-        <v>1.199707844211168</v>
+        <v>24.24512750011012</v>
       </c>
       <c r="F24" t="n">
-        <v>9.488922886848449</v>
+        <v>6.7151780128479</v>
       </c>
       <c r="G24" t="n">
-        <v>9.037830352783203</v>
+        <v>6.7151780128479</v>
       </c>
       <c r="H24" t="n">
-        <v>9.72831916809082</v>
+        <v>6.993736743927002</v>
       </c>
       <c r="I24" t="n">
-        <v>8.233892440795898</v>
+        <v>6.264439582824707</v>
       </c>
       <c r="J24" t="n">
-        <v>1.494426727294922</v>
+        <v>0.7292971611022949</v>
       </c>
       <c r="K24" t="n">
-        <v>41.82227864133286</v>
+        <v>32.18549484347468</v>
       </c>
       <c r="L24" t="n">
-        <v>4169.766</v>
+        <v>5934.8613</v>
       </c>
       <c r="M24" t="n">
-        <v>0.64</v>
+        <v>1.0883968</v>
       </c>
       <c r="N24" t="n">
-        <v>0.14841694</v>
+        <v>1.4442267</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7567753</v>
+        <v>1.1040779</v>
       </c>
       <c r="P24" t="n">
-        <v>0.5792113444777749</v>
+        <v>1.604429007739714</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4170455027583157</v>
+        <v>0.1948644762375968</v>
       </c>
       <c r="R24" t="n">
-        <v>2.839885605748058</v>
+        <v>2.880011854113967</v>
       </c>
       <c r="S24" t="n">
-        <v>1.476655295751073</v>
+        <v>0.8087012339381878</v>
       </c>
       <c r="T24" t="n">
-        <v>4.4871</v>
+        <v>4.2335</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>GJ 9093, GJ 105.5</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>HD 50554</t>
         </is>
       </c>
       <c r="X24" t="n">
-        <v>12493</v>
+        <v>33212</v>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>SIMBAD + empirical</t>
+          <t>GAIA</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>K7V</t>
+          <t>F8V</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>K7V</t>
+          <t>F8V</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>23.91070100641772</v>
+        <v>31.06989669921887</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3380479015342121600</t>
+          <t>Gaia DR3 2501948402746099456</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3380479015342121600</t>
+          <t>2501948402746099456</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3380479015342121600</t>
+          <t>2501948402746099456</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>103.6782675948329</v>
+        <v>40.17990022710249</v>
       </c>
       <c r="E25" t="n">
-        <v>24.24512750011012</v>
+        <v>1.199707844211168</v>
       </c>
       <c r="F25" t="n">
-        <v>6.7151780128479</v>
+        <v>9.488922886848449</v>
       </c>
       <c r="G25" t="n">
-        <v>6.7151780128479</v>
+        <v>9.037830352783203</v>
       </c>
       <c r="H25" t="n">
-        <v>6.993736743927002</v>
+        <v>9.72831916809082</v>
       </c>
       <c r="I25" t="n">
-        <v>6.264439582824707</v>
+        <v>8.233892440795898</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7292971611022949</v>
+        <v>1.494426727294922</v>
       </c>
       <c r="K25" t="n">
-        <v>32.18549484347468</v>
+        <v>41.82227864133286</v>
       </c>
       <c r="L25" t="n">
-        <v>5934.8613</v>
+        <v>4169.766</v>
       </c>
       <c r="M25" t="n">
-        <v>1.0883968</v>
+        <v>0.7</v>
       </c>
       <c r="N25" t="n">
-        <v>1.4442267</v>
+        <v>0.14841694</v>
       </c>
       <c r="O25" t="n">
-        <v>1.1040779</v>
+        <v>0.7567753</v>
       </c>
       <c r="P25" t="n">
-        <v>1.604429007739714</v>
+        <v>0.5792113444777749</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1948644762375968</v>
+        <v>0.4170455027583157</v>
       </c>
       <c r="R25" t="n">
-        <v>2.880011854113967</v>
+        <v>2.970022591198855</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8087012339381878</v>
+        <v>1.615091729727736</v>
       </c>
       <c r="T25" t="n">
-        <v>4.2335</v>
+        <v>4.4871</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>HD  50554</t>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>GJ 9093</t>
         </is>
       </c>
       <c r="X25" t="n">
-        <v>33212</v>
+        <v>12493</v>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>GAIA</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>F8V</t>
+          <t>K5V</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>F8V</t>
+          <t>K5V</t>
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>31.06989669921887</v>
+        <v>23.91070100641772</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5340648488081462528</t>
+          <t>Gaia DR3 5340648488081462528</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3369,7 +3344,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>HD  95338</t>
+          <t>HD 95338</t>
         </is>
       </c>
       <c r="X26" t="n">
@@ -3377,7 +3352,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3396,7 +3371,7 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>36.96574143989464</v>
+        <v>36.96574143989465</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -3407,7 +3382,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2908664557091200768</t>
+          <t>Gaia DR3 2908664557091200768</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3481,7 +3456,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3511,7 +3486,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4928367189958259968</t>
+          <t>Gaia DR3 4928367189958259968</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3582,12 +3557,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3612,7 +3582,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4728513943538448512</t>
+          <t>Gaia DR3 4728513943538448512</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3683,7 +3653,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>HD  18599</t>
+          <t>HD 18599</t>
         </is>
       </c>
       <c r="X29" t="n">
@@ -3691,7 +3661,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3721,7 +3691,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2664042942398600064</t>
+          <t>Gaia DR3 2664042942398600064</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3800,7 +3770,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3830,7 +3800,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4648266774581927296</t>
+          <t>Gaia DR3 4648266774581927296</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3901,7 +3871,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>HD  36767</t>
+          <t>HD 36767</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -3914,7 +3884,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -3944,7 +3914,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6230733559097425152</t>
+          <t>Gaia DR3 6230733559097425152</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4018,12 +3988,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4048,7 +4013,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5746824674801810816</t>
+          <t>Gaia DR3 5746824674801810816</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4119,7 +4084,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>HD  73583</t>
+          <t>HD 73583</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -4132,7 +4097,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4151,7 +4116,7 @@
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>31.58870948768594</v>
+        <v>31.58870948768593</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -4162,7 +4127,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5266722205277801984</t>
+          <t>Gaia DR3 5266722205277801984</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4233,7 +4198,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>HD  48611</t>
+          <t>HD 48611</t>
         </is>
       </c>
       <c r="X34" t="n">
@@ -4241,7 +4206,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4260,7 +4225,7 @@
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>38.94392343125299</v>
+        <v>38.943923431253</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -4271,7 +4236,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3368214650329888512</t>
+          <t>Gaia DR3 3368214650329888512</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4342,7 +4307,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>HD  53532</t>
+          <t>HD 53532</t>
         </is>
       </c>
       <c r="X35" t="n">
@@ -4350,7 +4315,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4380,7 +4345,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5019835424832215424</t>
+          <t>Gaia DR3 5019835424832215424</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4451,7 +4416,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>HD  13386</t>
+          <t>HD 13386</t>
         </is>
       </c>
       <c r="X36" t="n">
@@ -4459,7 +4424,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4489,7 +4454,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5068777809824976256</t>
+          <t>Gaia DR3 5068777809824976256</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4560,7 +4525,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>HD  15337</t>
+          <t>HD 15337</t>
         </is>
       </c>
       <c r="X37" t="n">
@@ -4568,7 +4533,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4598,7 +4563,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5462461354061501696</t>
+          <t>Gaia DR3 5462461354061501696</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4669,7 +4634,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>HD  89965</t>
+          <t>HD 89965</t>
         </is>
       </c>
       <c r="X38" t="n">
@@ -4677,7 +4642,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4707,7 +4672,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2643842302456085888</t>
+          <t>Gaia DR3 2643842302456085888</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4786,7 +4751,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -4816,7 +4781,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3362357139570884096</t>
+          <t>Gaia DR3 3362357139570884096</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4887,7 +4852,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -4906,7 +4871,7 @@
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>46.06148963783663</v>
+        <v>46.06148963783664</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
@@ -4917,7 +4882,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4674216245427964416</t>
+          <t>Gaia DR3 4674216245427964416</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4988,7 +4953,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>HD  23472</t>
+          <t>HD 23472</t>
         </is>
       </c>
       <c r="X41" t="n">
@@ -4996,7 +4961,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5015,7 +4980,7 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>39.0903762579788</v>
+        <v>39.09037625797879</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -5026,7 +4991,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6387058411482257536</t>
+          <t>Gaia DR3 6387058411482257536</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5097,7 +5062,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>HD 222259, HD 222259A</t>
+          <t>HD 222259</t>
         </is>
       </c>
       <c r="X42" t="n">
@@ -5105,7 +5070,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>RSCVnV*</t>
+          <t>RS*</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5135,7 +5100,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3145754895088191744</t>
+          <t>Gaia DR3 3145754895088191744</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5206,7 +5171,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>HD  63935</t>
+          <t>HD 63935</t>
         </is>
       </c>
       <c r="X43" t="n">
@@ -5214,7 +5179,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5244,7 +5209,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5822482108594169472</t>
+          <t>Gaia DR3 5822482108594169472</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5350,7 +5315,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5452634262730082176</t>
+          <t>Gaia DR3 5452634262730082176</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5424,7 +5389,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5454,7 +5419,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5660492297395345408</t>
+          <t>Gaia DR3 5660492297395345408</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5525,7 +5490,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>HD  86226</t>
+          <t>HD 86226</t>
         </is>
       </c>
       <c r="X46" t="n">
@@ -5533,7 +5498,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -5552,7 +5517,7 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>45.5994814754951</v>
+        <v>45.59948147549512</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -5563,7 +5528,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6407428994690988928</t>
+          <t>Gaia DR3 6407428994690988928</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5642,7 +5607,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5661,7 +5626,7 @@
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>47.7743423085</v>
+        <v>47.77434230850001</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -5672,7 +5637,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4807503030677131392</t>
+          <t>Gaia DR3 4807503030677131392</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5740,12 +5705,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5770,7 +5730,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2971536418673198976</t>
+          <t>Gaia DR3 2971536418673198976</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5841,7 +5801,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>HD  36152</t>
+          <t>HD 36152</t>
         </is>
       </c>
       <c r="X49" t="n">
@@ -5849,7 +5809,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -5868,7 +5828,7 @@
         </is>
       </c>
       <c r="AC49" t="n">
-        <v>49.36973911725025</v>
+        <v>49.36973911725026</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
@@ -5879,7 +5839,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6731033919791468928</t>
+          <t>Gaia DR3 6731033919791468928</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5953,7 +5913,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -5972,7 +5932,7 @@
         </is>
       </c>
       <c r="AC50" t="n">
-        <v>44.85630836711915</v>
+        <v>44.85630836711914</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -5983,7 +5943,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5175239363214344960</t>
+          <t>Gaia DR3 5175239363214344960</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6054,7 +6014,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>HD  15906</t>
+          <t>HD 15906</t>
         </is>
       </c>
       <c r="X51" t="n">
@@ -6062,7 +6022,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6092,7 +6052,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6902829553611002624</t>
+          <t>Gaia DR3 6902829553611002624</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6168,7 +6128,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6198,7 +6158,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1779546757669063552</t>
+          <t>Gaia DR3 1779546757669063552</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6277,7 +6237,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>Variable*</t>
+          <t>V*</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6307,7 +6267,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6541360574788758016</t>
+          <t>Gaia DR3 6541360574788758016</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6386,7 +6346,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -6416,7 +6376,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1272123859439770368</t>
+          <t>Gaia DR3 1272123859439770368</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6487,12 +6447,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6517,7 +6472,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5325767388444756480</t>
+          <t>Gaia DR3 5325767388444756480</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6596,7 +6551,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6626,7 +6581,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3220926542276901888</t>
+          <t>Gaia DR3 3220926542276901888</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6699,12 +6654,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -6729,7 +6679,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2380611517889461504</t>
+          <t>Gaia DR3 2380611517889461504</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6800,11 +6750,11 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>40.09106465613874</v>
+        <v>40.09106465613873</v>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
@@ -6815,7 +6765,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5250780970316845696</t>
+          <t>Gaia DR3 5250780970316845696</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6868,10 +6818,10 @@
         <v>0.4026311336917571</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.9386424423932032</v>
+        <v>0.9386424423932033</v>
       </c>
       <c r="R59" t="n">
-        <v>5.02924784540017</v>
+        <v>5.029247845400172</v>
       </c>
       <c r="S59" t="n">
         <v>2.803773182186938</v>
@@ -6883,12 +6833,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6902,7 +6847,7 @@
         </is>
       </c>
       <c r="AC59" t="n">
-        <v>41.80344952411277</v>
+        <v>41.80344952411276</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -6913,7 +6858,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6598814657249555328</t>
+          <t>Gaia DR3 6598814657249555328</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6966,10 +6911,10 @@
         <v>0.6002050508857573</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.6994500493180024</v>
+        <v>0.6994500493180023</v>
       </c>
       <c r="R60" t="n">
-        <v>5.066808676581831</v>
+        <v>5.06680867658183</v>
       </c>
       <c r="S60" t="n">
         <v>2.005730181042971</v>
@@ -6987,7 +6932,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>Star</t>
+          <t>*</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7017,7 +6962,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>666427539629086976</t>
+          <t>Gaia DR3 666427539629086976</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7088,7 +7033,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>HD  73344</t>
+          <t>HD 73344</t>
         </is>
       </c>
       <c r="X61" t="n">
@@ -7096,7 +7041,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7126,7 +7071,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>887456658443952256</t>
+          <t>Gaia DR3 887456658443952256</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7194,12 +7139,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7224,7 +7164,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5330756285016121472</t>
+          <t>Gaia DR3 5330756285016121472</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7295,7 +7235,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -7314,7 +7254,7 @@
         </is>
       </c>
       <c r="AC63" t="n">
-        <v>42.42813356345499</v>
+        <v>42.42813356345498</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -7325,7 +7265,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>22707874346819712</t>
+          <t>Gaia DR3 22707874346819712</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7396,12 +7336,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7426,7 +7361,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4223507222112425344</t>
+          <t>Gaia DR3 4223507222112425344</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7494,12 +7429,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7524,7 +7454,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2770944059921387648</t>
+          <t>Gaia DR3 2770944059921387648</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7595,12 +7525,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -7614,7 +7539,7 @@
         </is>
       </c>
       <c r="AC66" t="n">
-        <v>43.07406530599913</v>
+        <v>43.07406530599914</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -7625,7 +7550,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>5064574724769475968</t>
+          <t>Gaia DR3 5064574724769475968</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7696,7 +7621,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>HD  17926</t>
+          <t>HD 17926</t>
         </is>
       </c>
       <c r="X67" t="n">
@@ -7704,7 +7629,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -7723,7 +7648,7 @@
         </is>
       </c>
       <c r="AC67" t="n">
-        <v>31.70399233689044</v>
+        <v>31.70399233689045</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -7734,7 +7659,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3301771025223950336</t>
+          <t>Gaia DR3 3301771025223950336</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7805,7 +7730,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>HD  25463</t>
+          <t>HD 25463</t>
         </is>
       </c>
       <c r="X68" t="n">
@@ -7813,7 +7738,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -7832,7 +7757,7 @@
         </is>
       </c>
       <c r="AC68" t="n">
-        <v>45.18455781418143</v>
+        <v>45.18455781418142</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -7843,7 +7768,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>5480006192386819456</t>
+          <t>Gaia DR3 5480006192386819456</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7896,10 +7821,10 @@
         <v>2.334306302244112</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.753876511144289</v>
+        <v>1.753876511144288</v>
       </c>
       <c r="R69" t="n">
-        <v>33.76423036948551</v>
+        <v>33.7642303694855</v>
       </c>
       <c r="S69" t="n">
         <v>0.415053030397252</v>
@@ -7914,7 +7839,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>HD  50571</t>
+          <t>HD 50571</t>
         </is>
       </c>
       <c r="X69" t="n">
@@ -7922,7 +7847,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>HighPM*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -7941,7 +7866,7 @@
         </is>
       </c>
       <c r="AC69" t="n">
-        <v>33.92840645115612</v>
+        <v>33.92840645115611</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -7952,7 +7877,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6536790454707565696</t>
+          <t>Gaia DR2 6536790454707565696</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -8003,14 +7928,22 @@
         <v>10.69619875496007</v>
       </c>
       <c r="R70" t="n">
-        <v>187.1954334784244</v>
+        <v>187.1954334784243</v>
       </c>
       <c r="S70" t="n">
         <v>0.5213404410367096</v>
       </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>SIMBAD + empirical</t>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>HD 220163</t>
+        </is>
+      </c>
+      <c r="X70" t="n">
+        <v>115358</v>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>**</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">

--- a/results/GAIA__TESS_candidate__matches__unique_stars.xlsx
+++ b/results/GAIA__TESS_candidate__matches__unique_stars.xlsx
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>21.38573457164645</v>
+        <v>21.38573457164644</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>23.73536925404753</v>
+        <v>23.73536925404754</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>36.96574143989465</v>
+        <v>36.96574143989464</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>31.58870948768593</v>
+        <v>31.58870948768594</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>38.943923431253</v>
+        <v>38.94392343125299</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>46.06148963783664</v>
+        <v>46.06148963783663</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>39.09037625797879</v>
+        <v>39.0903762579788</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>45.59948147549512</v>
+        <v>45.5994814754951</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>47.77434230850001</v>
+        <v>47.7743423085</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         </is>
       </c>
       <c r="AC49" t="n">
-        <v>49.36973911725026</v>
+        <v>49.36973911725025</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="AC50" t="n">
-        <v>44.85630836711914</v>
+        <v>44.85630836711915</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>40.09106465613873</v>
+        <v>40.09106465613874</v>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="AC59" t="n">
-        <v>41.80344952411276</v>
+        <v>41.80344952411277</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         </is>
       </c>
       <c r="AC63" t="n">
-        <v>42.42813356345498</v>
+        <v>42.42813356345499</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         </is>
       </c>
       <c r="AC66" t="n">
-        <v>43.07406530599914</v>
+        <v>43.07406530599913</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         </is>
       </c>
       <c r="AC67" t="n">
-        <v>31.70399233689045</v>
+        <v>31.70399233689044</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="AC68" t="n">
-        <v>45.18455781418142</v>
+        <v>45.18455781418143</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         </is>
       </c>
       <c r="AC69" t="n">
-        <v>33.92840645115611</v>
+        <v>33.92840645115612</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
